--- a/08_ProtectMode/23 控制寄存器(CR).xlsx
+++ b/08_ProtectMode/23 控制寄存器(CR).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_ProtectMode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C239634-4A88-4740-A8A0-77636548D141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54BFC9C-A07E-422B-8D72-ADDC2016A6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4、Cr3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>x86</t>
     </r>
@@ -166,6 +162,10 @@
       </rPr>
       <t xml:space="preserve">Cr0 Cr1 Cr2 Cr3 Cr4 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、Cr4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2974,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A334C0A-8EFE-4DAD-85DC-5F594EB7E6F9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
